--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_10_beg.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_10_beg.xlsx
@@ -2504,19 +2504,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"](So... this is Lungmen.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"](I must hurry—)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Kind sir, would you spare me a moment?
+    <t xml:space="preserve">[name="Mr. Nothing"]......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"](So... this is Lungmen.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"](I must hurry—)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Kind sir, would you spare me a moment?
 </t>
   </si>
   <si>
@@ -2524,11 +2524,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]There is something I would like to ask.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Is Master Tung's finball stall nearby?
+    <t xml:space="preserve">[name="Mr. Nothing"]There is something I would like to ask.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Is Master Tung's finball stall nearby?
 </t>
   </si>
   <si>
@@ -2540,7 +2540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Uh, yes, but of course! They're famous far and wide, hahaha—
+    <t xml:space="preserve">[name="Mr. Nothing"]Uh, yes, but of course! They're famous far and wide, hahaha—
 </t>
   </si>
   <si>
@@ -2552,7 +2552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]It has closed? Do you perchance know where Master Tung lives, then?
+    <t xml:space="preserve">[name="Mr. Nothing"]It has closed? Do you perchance know where Master Tung lives, then?
 </t>
   </si>
   <si>
@@ -2560,7 +2560,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Kind sir?
+    <t xml:space="preserve">[name="Mr. Nothing"]Kind sir?
 </t>
   </si>
   <si>
@@ -2568,7 +2568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Err... Hahaha, quite right. Haha... I'll wait till the morrow then—
+    <t xml:space="preserve">[name="Mr. Nothing"]Err... Hahaha, quite right. Haha... I'll wait till the morrow then—
 </t>
   </si>
   <si>
@@ -2576,11 +2576,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Mmh—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—K-Kind sir? What is the meaning of this? Please, lower your cane—
+    <t xml:space="preserve">[name="Mr. Nothing"]Mmh—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]—K-Kind sir? What is the meaning of this? Please, lower your cane—
 </t>
   </si>
   <si>
@@ -2588,7 +2588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I... I—
+    <t xml:space="preserve">[name="Mr. Nothing"]I... I—
 </t>
   </si>
   <si>
@@ -2604,7 +2604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—You... Are you...?! Mmph!
+    <t xml:space="preserve">[name="Mr. Nothing"]—You... Are you...?! Mmph!
 </t>
   </si>
   <si>
@@ -2612,7 +2612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Only those I've already asked about! I am looking for Uncle Tung only because I have no choice—!
+    <t xml:space="preserve">[name="Mr. Nothing"]Only those I've already asked about! I am looking for Uncle Tung only because I have no choice—!
 </t>
   </si>
   <si>
@@ -2620,7 +2620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]No! No, it is not! Please, listen to me—
+    <t xml:space="preserve">[name="Mr. Nothing"]No! No, it is not! Please, listen to me—
 </t>
   </si>
   <si>
@@ -2632,7 +2632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—She's my master!
+    <t xml:space="preserve">[name="Mr. Nothing"]—She's my master!
 </t>
   </si>
   <si>
@@ -2640,7 +2640,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My master...
+    <t xml:space="preserve">[name="Mr. Nothing"]My master...
 </t>
   </si>
   <si>
@@ -2648,7 +2648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]She passed!
+    <t xml:space="preserve">[name="Mr. Nothing"]She passed!
 </t>
   </si>
   <si>
@@ -2656,7 +2656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]She... She was damned well murdered... because of me, an imbecile of a disciple!
+    <t xml:space="preserve">[name="Mr. Nothing"]She... She was damned well murdered... because of me, an imbecile of a disciple!
 </t>
   </si>
   <si>
@@ -2668,7 +2668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Master Lin—!
+    <t xml:space="preserve">[name="Mr. Nothing"]Master Lin—!
 </t>
   </si>
   <si>
@@ -2676,7 +2676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I-I heard of you from my master... Please, I cannot be caught by those men yet!
+    <t xml:space="preserve">[name="Mr. Nothing"]I-I heard of you from my master... Please, I cannot be caught by those men yet!
 </t>
   </si>
   <si>
@@ -2684,7 +2684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]The flame can't be snuffed!
+    <t xml:space="preserve">[name="Mr. Nothing"]The flame can't be snuffed!
 </t>
   </si>
   <si>
@@ -2692,7 +2692,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]This is nothing the police can manage!
+    <t xml:space="preserve">[name="Mr. Nothing"]This is nothing the police can manage!
 </t>
   </si>
   <si>
@@ -2708,7 +2708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—N-No, I can't!
+    <t xml:space="preserve">[name="Mr. Nothing"]—N-No, I can't!
 </t>
   </si>
   <si>
@@ -2716,7 +2716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My master told me. The debt that Uncle Tung owes Lin of Lungmen... is also hers. No matter the circumstances, I must not disrespect—
+    <t xml:space="preserve">[name="Mr. Nothing"]My master told me. The debt that Uncle Tung owes Lin of Lungmen... is also hers. No matter the circumstances, I must not disrespect—
 </t>
   </si>
   <si>
@@ -2724,7 +2724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—I'm afraid I can't!
+    <t xml:space="preserve">[name="Mr. Nothing"]—I'm afraid I can't!
 </t>
   </si>
   <si>
@@ -2732,7 +2732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My name is not Lien! I am undeserving!
+    <t xml:space="preserve">[name="Mr. Nothing"]My name is not Lien! I am undeserving!
 </t>
   </si>
   <si>
@@ -2740,7 +2740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Lien is not my name!
+    <t xml:space="preserve">[name="Mr. Nothing"]Lien is not my name!
 </t>
   </si>
   <si>
@@ -2748,7 +2748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I—
+    <t xml:space="preserve">[name="Mr. Nothing"]I—
 </t>
   </si>
   <si>
@@ -2756,7 +2756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Master Lin... please forgive me.
+    <t xml:space="preserve">[name="Mr. Nothing"]Master Lin... please forgive me.
 </t>
   </si>
   <si>
@@ -2768,7 +2768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—!
+    <t xml:space="preserve">[name="Mr. Nothing"]—!
 </t>
   </si>
   <si>
@@ -2784,7 +2784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I have yet to do what I must.
+    <t xml:space="preserve">[name="Mr. Nothing"]I have yet to do what I must.
 </t>
   </si>
   <si>
@@ -2792,11 +2792,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Save it. If I make it back alive, we will share this drink.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]If that time comes, I suppose I won't be using this pseudonym anymore.
+    <t xml:space="preserve">[name="Mr. Nothing"]Save it. If I make it back alive, we will share this drink.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]If that time comes, I suppose I won't be using this pseudonym anymore.
 </t>
   </si>
   <si>
@@ -2812,7 +2812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]But I must return. I am indebted to you. I cannot well just pack up and leave.
+    <t xml:space="preserve">[name="Mr. Nothing"]But I must return. I am indebted to you. I cannot well just pack up and leave.
 </t>
   </si>
   <si>
@@ -2820,7 +2820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ha. Haha, Master Lin. At least save me some face.
+    <t xml:space="preserve">[name="Mr. Nothing"]Ha. Haha, Master Lin. At least save me some face.
 </t>
   </si>
   <si>
@@ -2828,7 +2828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]It's all over, but I've made enemies everywhere. It's not realistic for me to stay in my hometown.
+    <t xml:space="preserve">[name="Mr. Nothing"]It's all over, but I've made enemies everywhere. It's not realistic for me to stay in my hometown.
 </t>
   </si>
   <si>
@@ -2836,7 +2836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Of course, I can't take what's yours without proper payment.
+    <t xml:space="preserve">[name="Mr. Nothing"]Of course, I can't take what's yours without proper payment.
 </t>
   </si>
   <si>
@@ -2844,7 +2844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Indeed it is. I named it 'Friendship,' for friendship is wealth as the saying goes. What do you think?
+    <t xml:space="preserve">[name="Mr. Nothing"]Indeed it is. I named it 'Friendship,' for friendship is wealth as the saying goes. What do you think?
 </t>
   </si>
   <si>
@@ -2852,7 +2852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]As long as it earns me good coin, why does it matter in this day and age that it's a fitness center for the elderly?!
+    <t xml:space="preserve">[name="Mr. Nothing"]As long as it earns me good coin, why does it matter in this day and age that it's a fitness center for the elderly?!
 </t>
   </si>
   <si>
@@ -2860,7 +2860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ahaha... It's not necessarily a bad thing to have no customers. I heard this is fashionable in recent...
+    <t xml:space="preserve">[name="Mr. Nothing"]Ahaha... It's not necessarily a bad thing to have no customers. I heard this is fashionable in recent...
 </t>
   </si>
   <si>
@@ -2868,7 +2868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My oh my. Please come this way, esteemed guest. We are a traditional Yen martial arts training center. I guarantee you'll find yourself most hale and hearty in no time!
+    <t xml:space="preserve">[name="Mr. Nothing"]My oh my. Please come this way, esteemed guest. We are a traditional Yen martial arts training center. I guarantee you'll find yourself most hale and hearty in no time!
 </t>
   </si>
   <si>
@@ -2880,11 +2880,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]...?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]You...
+    <t xml:space="preserve">[name="Mr. Nothing"]...?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]You...
 </t>
   </si>
   <si>
@@ -2904,7 +2904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Open your eyes... Do I look alright...?
+    <t xml:space="preserve">[name="Mr. Nothing"]Open your eyes... Do I look alright...?
 </t>
   </si>
   <si>
@@ -2912,11 +2912,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Save it... *cough* *cough*... It's too late; I can tell. It's opening day, and blood has already been spilled. Just my luck...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I... *cough*, stop crying. You are a big guy. It's nothing uncommon to see a fellow man die.
+    <t xml:space="preserve">[name="Mr. Nothing"]Save it... *cough* *cough*... It's too late; I can tell. It's opening day, and blood has already been spilled. Just my luck...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]I... *cough*, stop crying. You are a big guy. It's nothing uncommon to see a fellow man die.
 </t>
   </si>
   <si>
@@ -2924,7 +2924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]It's okay... This... is how it's meant to be...
+    <t xml:space="preserve">[name="Mr. Nothing"]It's okay... This... is how it's meant to be...
 </t>
   </si>
   <si>
@@ -2936,7 +2936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I... Did I just...?
+    <t xml:space="preserve">[name="Mr. Nothing"]I... Did I just...?
 </t>
   </si>
   <si>
@@ -2948,7 +2948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]?!
+    <t xml:space="preserve">[name="Mr. Nothing"]?!
 </t>
   </si>
   <si>
@@ -3152,7 +3152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I... knew you’d be here. Sorry, but I won’t let you pass. No matter what.
+    <t xml:space="preserve">I... knew you'd be here. Sorry, but I won't let you pass. No matter what.
 </t>
   </si>
   <si>
@@ -3276,7 +3276,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]Kroos! Mr.Nothing!
+    <t xml:space="preserve">[name="Lava"]Kroos! Mr. Nothing!
 </t>
   </si>
   <si>
@@ -3504,7 +3504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Mnn, my brain hurts... Hmm? My benefactor, Kroos?
+    <t xml:space="preserve">[name="Mr. Nothing"]Mnn, my brain hurts... Hmm? My benefactor, Kroos?
 </t>
   </si>
   <si>
@@ -3512,7 +3512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]No idea, they... M-My benefactor, are we back in Mount Hui-ch'i?
+    <t xml:space="preserve">[name="Mr. Nothing"]No idea, they... M-My benefactor, are we back in Mount Hui-ch'i?
 </t>
   </si>
   <si>
@@ -3544,7 +3544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Don't tell me... You are the villain behind it all...?
+    <t xml:space="preserve">[name="Mr. Nothing"]Don't tell me... You are the villain behind it all...?
 </t>
   </si>
   <si>
@@ -3608,7 +3608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]W-What?! Where is this sound coming from?
+    <t xml:space="preserve">[name="Mr. Nothing"]W-What?! Where is this sound coming from?
 </t>
   </si>
   <si>
@@ -3720,7 +3720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]Kroos, Mr.Nothing, hide!
+    <t xml:space="preserve">[name="Lava"]Kroos, Mr. Nothing, hide!
 </t>
   </si>
   <si>
@@ -3776,7 +3776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]지금 시간이라면 벌써 문을 닫을 걸세.
+    <t xml:space="preserve">[name="???"]지금 시간이라면 벌써 문을 닫았을 걸세.
 </t>
   </si>
   <si>
@@ -3788,7 +3788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]흠……
+    <t xml:space="preserve">[name="???"]으으……
 </t>
   </si>
   <si>
@@ -4116,7 +4116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="우요우"]너……
+    <t xml:space="preserve">[name="우요우"]당신……
 </t>
   </si>
   <si>
@@ -4212,7 +4212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="비글"]응!
+    <t xml:space="preserve">[name="비글"]네!
 </t>
   </si>
   <si>
@@ -4340,7 +4340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="크루스"]어.
+    <t xml:space="preserve">[name="크루스"]응.
 </t>
   </si>
   <si>
@@ -4896,7 +4896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="니엔"]아, 그럴 만도 하겠네. 대부분 사람들의 사고와 감각 기관도 영향을 받았으니, 의식하지 못해도 뭐…… 크게 상관은 없나.
+    <t xml:space="preserve">[name="니엔"]아, 그럴 만도 하겠네. 대부분 사람들의 사고와 감각 기관도 영향을 받았으니, 의식하지 못해도 뭐…… 크게 상관은 없어.
 </t>
   </si>
   <si>
